--- a/Data/register.xlsx
+++ b/Data/register.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Javasrc\selenium-test\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2914CE13-9C49-4F48-AED0-6E9E5E54A7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345C5794-238C-49C0-8457-B678CC9DD491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1992" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>FirstName</t>
   </si>
@@ -78,13 +78,20 @@
     <t>Pacific/Midway (GMT-11:00)</t>
   </si>
   <si>
-    <t>melekKKKKkKkkkkk4@gmail.com</t>
+    <t>melekKKKKkKkkkkkkkkkkkk4@gmail.com</t>
+  </si>
+  <si>
+    <t>1cYF4EdQCA@gmail.com</t>
+  </si>
+  <si>
+    <t>nTQfg3UrNO@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,79 +422,79 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="10" max="10" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="6" max="6" customWidth="true" width="16.88671875"/>
+    <col min="10" max="10" customWidth="true" width="18.21875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>28277188788</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>5536974644</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="F2" s="0">
         <v>23092001</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>16</v>
       </c>
     </row>

--- a/Data/register.xlsx
+++ b/Data/register.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>FirstName</t>
   </si>
@@ -85,6 +85,252 @@
   </si>
   <si>
     <t>nTQfg3UrNO@gmail.com</t>
+  </si>
+  <si>
+    <t>Dp6gC2e51J@gmail.com</t>
+  </si>
+  <si>
+    <t>Sdapp2u9Pe@gmail.com</t>
+  </si>
+  <si>
+    <t>giMvdbnHD9@gmail.com</t>
+  </si>
+  <si>
+    <t>0rJFXpBEfk@gmail.com</t>
+  </si>
+  <si>
+    <t>vR0czRjqM2@gmail.com</t>
+  </si>
+  <si>
+    <t>kdDJF2thWz@gmail.com</t>
+  </si>
+  <si>
+    <t>vgahN2T9Js@gmail.com</t>
+  </si>
+  <si>
+    <t>oWjJWltZWT@gmail.com</t>
+  </si>
+  <si>
+    <t>pA2xNe4apf@gmail.com</t>
+  </si>
+  <si>
+    <t>9NVfzmWM2f@gmail.com</t>
+  </si>
+  <si>
+    <t>rALoNUqR6Y@gmail.com</t>
+  </si>
+  <si>
+    <t>q2a9Hp5Bw1@gmail.com</t>
+  </si>
+  <si>
+    <t>6zckwqcelI@gmail.com</t>
+  </si>
+  <si>
+    <t>3obJolfftg@gmail.com</t>
+  </si>
+  <si>
+    <t>0XtXSNei6z@gmail.com</t>
+  </si>
+  <si>
+    <t>zk2DnAP5TC@gmail.com</t>
+  </si>
+  <si>
+    <t>sd4chqceXy@gmail.com</t>
+  </si>
+  <si>
+    <t>qbnqkbQMU8@gmail.com</t>
+  </si>
+  <si>
+    <t>LvFvclcZfj@gmail.com</t>
+  </si>
+  <si>
+    <t>xMrVMayAhN@gmail.com</t>
+  </si>
+  <si>
+    <t>9gaurZEI5L@gmail.com</t>
+  </si>
+  <si>
+    <t>mNmDi3s9Q5@gmail.com</t>
+  </si>
+  <si>
+    <t>QBN00oM2Ow@gmail.com</t>
+  </si>
+  <si>
+    <t>U3T5gN7reh@gmail.com</t>
+  </si>
+  <si>
+    <t>s29TfWs2w1@gmail.com</t>
+  </si>
+  <si>
+    <t>pPrrYTuQUs@gmail.com</t>
+  </si>
+  <si>
+    <t>ZGmrPJgDML@gmail.com</t>
+  </si>
+  <si>
+    <t>oHhOCLFibX@gmail.com</t>
+  </si>
+  <si>
+    <t>EKzWR01yCL@gmail.com</t>
+  </si>
+  <si>
+    <t>WFwTFS0EhQ@gmail.com</t>
+  </si>
+  <si>
+    <t>lIIibza9oJ@gmail.com</t>
+  </si>
+  <si>
+    <t>wMVCMJOuZe@gmail.com</t>
+  </si>
+  <si>
+    <t>1BYx875pMo@gmail.com</t>
+  </si>
+  <si>
+    <t>RMx58gFGsr@gmail.com</t>
+  </si>
+  <si>
+    <t>5BfWyMZ9Mn@gmail.com</t>
+  </si>
+  <si>
+    <t>m8ERtndpfg@gmail.com</t>
+  </si>
+  <si>
+    <t>JwGPJTNXky@gmail.com</t>
+  </si>
+  <si>
+    <t>qgv7SQ26c4@gmail.com</t>
+  </si>
+  <si>
+    <t>t9Aql6FS74@gmail.com</t>
+  </si>
+  <si>
+    <t>kvcMPabBhY@gmail.com</t>
+  </si>
+  <si>
+    <t>TfzvkDZl5y@gmail.com</t>
+  </si>
+  <si>
+    <t>TPQlPW8NoC@gmail.com</t>
+  </si>
+  <si>
+    <t>R4HmuMKoag@gmail.com</t>
+  </si>
+  <si>
+    <t>vNDjnS9FUK@gmail.com</t>
+  </si>
+  <si>
+    <t>I2xQydGosu@gmail.com</t>
+  </si>
+  <si>
+    <t>JrhBaeGT7K@gmail.com</t>
+  </si>
+  <si>
+    <t>sFk93Ihizx@gmail.com</t>
+  </si>
+  <si>
+    <t>5rYBEFFQ2r@gmail.com</t>
+  </si>
+  <si>
+    <t>x2BCgAq7LN@gmail.com</t>
+  </si>
+  <si>
+    <t>BbqaumEaNB@gmail.com</t>
+  </si>
+  <si>
+    <t>tnXykr9cc4@gmail.com</t>
+  </si>
+  <si>
+    <t>zibyZzJw2h@gmail.com</t>
+  </si>
+  <si>
+    <t>PvBHC7PUQB@gmail.com</t>
+  </si>
+  <si>
+    <t>UsvWPR9xTG@gmail.com</t>
+  </si>
+  <si>
+    <t>tLR4ipIRts@gmail.com</t>
+  </si>
+  <si>
+    <t>TnL6WtlKAP@gmail.com</t>
+  </si>
+  <si>
+    <t>LatffBkSAC@gmail.com</t>
+  </si>
+  <si>
+    <t>2pdphr5Dv1@gmail.com</t>
+  </si>
+  <si>
+    <t>h4C2a4FbwP@gmail.com</t>
+  </si>
+  <si>
+    <t>SVFQXIipsM@gmail.com</t>
+  </si>
+  <si>
+    <t>03SAbPSVXI@gmail.com</t>
+  </si>
+  <si>
+    <t>h3t4jBusDj@gmail.com</t>
+  </si>
+  <si>
+    <t>oWH3GVQutP@gmail.com</t>
+  </si>
+  <si>
+    <t>bDKfUIvwoI@gmail.com</t>
+  </si>
+  <si>
+    <t>X6xJPUfKte@gmail.com</t>
+  </si>
+  <si>
+    <t>Ks6feNRMGx@gmail.com</t>
+  </si>
+  <si>
+    <t>lmzQ032G0N@gmail.com</t>
+  </si>
+  <si>
+    <t>dM5vjoOZq1@gmail.com</t>
+  </si>
+  <si>
+    <t>3tYNcnwSnA@gmail.com</t>
+  </si>
+  <si>
+    <t>2ZAKadz4uQ@gmail.com</t>
+  </si>
+  <si>
+    <t>FYhMmoKpeo@gmail.com</t>
+  </si>
+  <si>
+    <t>oiszW1KfPg@gmail.com</t>
+  </si>
+  <si>
+    <t>ciWGUG7U5J@gmail.com</t>
+  </si>
+  <si>
+    <t>CzyxEJBUkX@gmail.com</t>
+  </si>
+  <si>
+    <t>YgtPGPDZhz@gmail.com</t>
+  </si>
+  <si>
+    <t>oi8o2m0LIJ@gmail.com</t>
+  </si>
+  <si>
+    <t>B3GKeFRdGa@gmail.com</t>
+  </si>
+  <si>
+    <t>fQOWYa980x@gmail.com</t>
+  </si>
+  <si>
+    <t>VmXtW1936c@gmail.com</t>
+  </si>
+  <si>
+    <t>Ldj8GZi6ja@gmail.com</t>
+  </si>
+  <si>
+    <t>Ib7kW5zj0u@gmail.com</t>
+  </si>
+  <si>
+    <t>HRzSWz3NBH@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -477,7 +723,7 @@
         <v>5536974644</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="F2" s="0">
         <v>23092001</v>

--- a/Data/register.xlsx
+++ b/Data/register.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="145">
   <si>
     <t>FirstName</t>
   </si>
@@ -331,6 +331,135 @@
   </si>
   <si>
     <t>HRzSWz3NBH@gmail.com</t>
+  </si>
+  <si>
+    <t>mowWHGNSCa@gmail.com</t>
+  </si>
+  <si>
+    <t>apQLeTdD6d@gmail.com</t>
+  </si>
+  <si>
+    <t>CKBuyrFHSO@gmail.com</t>
+  </si>
+  <si>
+    <t>YQyK2xb6Ip@gmail.com</t>
+  </si>
+  <si>
+    <t>umXEJ52zke@gmail.com</t>
+  </si>
+  <si>
+    <t>3JgPBgV0IA@gmail.com</t>
+  </si>
+  <si>
+    <t>mtYmUp9h5X@gmail.com</t>
+  </si>
+  <si>
+    <t>dUlzfS21SU@gmail.com</t>
+  </si>
+  <si>
+    <t>kZZILoBqoV@gmail.com</t>
+  </si>
+  <si>
+    <t>pVP3obh8Al@gmail.com</t>
+  </si>
+  <si>
+    <t>BxhsoBwmKy@gmail.com</t>
+  </si>
+  <si>
+    <t>TEUAScG47b@gmail.com</t>
+  </si>
+  <si>
+    <t>QCf0HH0v5p@gmail.com</t>
+  </si>
+  <si>
+    <t>X68JWWnr3g@gmail.com</t>
+  </si>
+  <si>
+    <t>COqYHD5EEJ@gmail.com</t>
+  </si>
+  <si>
+    <t>fB61rQ1x1P@gmail.com</t>
+  </si>
+  <si>
+    <t>7qodic6qrN@gmail.com</t>
+  </si>
+  <si>
+    <t>4DRTQrpjT0@gmail.com</t>
+  </si>
+  <si>
+    <t>exKVH5pbhm@gmail.com</t>
+  </si>
+  <si>
+    <t>rYzFHf7Pwz@gmail.com</t>
+  </si>
+  <si>
+    <t>5gNKFKWmkL@gmail.com</t>
+  </si>
+  <si>
+    <t>OXhmVoTsQY@gmail.com</t>
+  </si>
+  <si>
+    <t>G5f0JywY6k@gmail.com</t>
+  </si>
+  <si>
+    <t>M5rTJUqkfJ@gmail.com</t>
+  </si>
+  <si>
+    <t>jGN5fCQzM5@gmail.com</t>
+  </si>
+  <si>
+    <t>PIhPj01kN7@gmail.com</t>
+  </si>
+  <si>
+    <t>Z0NONvA35x@gmail.com</t>
+  </si>
+  <si>
+    <t>NXHCodswLU@gmail.com</t>
+  </si>
+  <si>
+    <t>hC4MDVa6jR@gmail.com</t>
+  </si>
+  <si>
+    <t>7H1vGIZB4x@gmail.com</t>
+  </si>
+  <si>
+    <t>NlXeW77P8Q@gmail.com</t>
+  </si>
+  <si>
+    <t>Ob0aUvBKuo@gmail.com</t>
+  </si>
+  <si>
+    <t>CCFbbCyQmb@gmail.com</t>
+  </si>
+  <si>
+    <t>umNi9ijiBd@gmail.com</t>
+  </si>
+  <si>
+    <t>5GYzDFjPdO@gmail.com</t>
+  </si>
+  <si>
+    <t>kC1f0yLTVP@gmail.com</t>
+  </si>
+  <si>
+    <t>V60uFNlKTl@gmail.com</t>
+  </si>
+  <si>
+    <t>MWNkBGvgLx@gmail.com</t>
+  </si>
+  <si>
+    <t>Ah2vmnGHwD@gmail.com</t>
+  </si>
+  <si>
+    <t>xj5jCqkqND@gmail.com</t>
+  </si>
+  <si>
+    <t>YHHVXKEkpJ@gmail.com</t>
+  </si>
+  <si>
+    <t>1u3BNbK1Tu@gmail.com</t>
+  </si>
+  <si>
+    <t>UARcRkk7Zg@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -723,7 +852,7 @@
         <v>5536974644</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="F2" s="0">
         <v>23092001</v>

--- a/Data/register.xlsx
+++ b/Data/register.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="146">
   <si>
     <t>FirstName</t>
   </si>
@@ -460,6 +460,9 @@
   </si>
   <si>
     <t>UARcRkk7Zg@gmail.com</t>
+  </si>
+  <si>
+    <t>ihIQymudlU@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -852,7 +855,7 @@
         <v>5536974644</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F2" s="0">
         <v>23092001</v>
